--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3670165.495953021</v>
+        <v>3666152.885939028</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228317</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>21.27902055891112</v>
       </c>
       <c r="E2" t="n">
-        <v>366.0912579821691</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>88.27534654873457</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>297.998630822261</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>203.267902013701</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>82.57906258117926</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>152.8981130947594</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>220.1612211844838</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
-        <v>25.63210380524279</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695508</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856532</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>124.1997375316496</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890369</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161954043</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695506</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9.146142788183926</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462236</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986276</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182121</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>80.10107535866339</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>101.5730368512059</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>5.421623586792874</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012146</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>197.8978701314612</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6608990998122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>20.66101211578988</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>115.2302178375797</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>78.9105100867805</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.208919851716</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C2" t="n">
-        <v>1918.208919851716</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="D2" t="n">
-        <v>1559.943221244966</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915838</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>2304.808759915838</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>470.2719172712683</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>381.1049005553748</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>651.920382101508</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.920382101508</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1498.154181889229</v>
       </c>
       <c r="D5" t="n">
-        <v>764.341133147311</v>
+        <v>1139.888483282478</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490667</v>
+        <v>1139.888483282478</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>728.9025784928708</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>313.8301283378673</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1562.365012146403</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1273.262145272047</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1273.262145272047</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1273.262145272047</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.041072043026</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.3436713194226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>854.3332222174399</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>626.3436713194226</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.3436713194226</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356181</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356181</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232826</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429796</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578597</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579365</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244365</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207405</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876727</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.963121559766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474305</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330917</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330917</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258108</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602306</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.74706939642</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359459</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614421</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179122</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876727</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.963121559766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>411.963121559766</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057735</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258108</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602306</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.74706939642</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359459</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614421</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179122</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856898</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577831</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454476</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9229394630547</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>341.9229394630547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>174.7268401779349</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359459</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159293</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171337</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892271</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768915</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>266.4891497944986</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330917</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487569</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625881</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.88566058892</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.896109690903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473732</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,16 +6241,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.5582272005026</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1997.16570697094</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1708.090480315137</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.405992109251</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.98882207229</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>935.9992711742725</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.2066920307424</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>928.4651056120481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.672526468518</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,28 +6952,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>808.8888553856862</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>658.7722159733504</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>510.8591223909573</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>363.9691748930469</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>196.7730756079268</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D46" t="n">
-        <v>564.5188827892232</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012147</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.405450327288</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>127.9379057921782</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303735</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462236</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856529</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>137.287819858385</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856529</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012143</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>60.19363748756027</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856531</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012146</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>78.25894333073137</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.9994244361382</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856531</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.405450327288</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.5075801958271</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>12.04875628922494</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>119.633700730434</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>31.20374480898943</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51053793615074</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657306.215087239</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657306.215087239</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657306.215087239</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657306.215087239</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
         <v>766789.269705506</v>
@@ -26346,16 +26346,16 @@
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181835</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181827</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181831</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181827</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.9201818182</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26524,46 +26524,46 @@
         <v>-748262.9598710861</v>
       </c>
       <c r="C6" t="n">
-        <v>580481.7858565063</v>
+        <v>580481.7858565066</v>
       </c>
       <c r="D6" t="n">
         <v>580481.7858565061</v>
       </c>
       <c r="E6" t="n">
-        <v>327867.3578924254</v>
+        <v>327519.978638069</v>
       </c>
       <c r="F6" t="n">
-        <v>653279.8196997801</v>
+        <v>652932.4404454236</v>
       </c>
       <c r="G6" t="n">
-        <v>653279.8196997805</v>
+        <v>652932.4404454237</v>
       </c>
       <c r="H6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454237</v>
       </c>
       <c r="I6" t="n">
-        <v>653279.8196997807</v>
+        <v>652932.4404454234</v>
       </c>
       <c r="J6" t="n">
-        <v>435748.6173025031</v>
+        <v>435401.2380481461</v>
       </c>
       <c r="K6" t="n">
-        <v>653279.8196997809</v>
+        <v>652932.4404454238</v>
       </c>
       <c r="L6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454238</v>
       </c>
       <c r="M6" t="n">
-        <v>568224.7917642692</v>
+        <v>567877.4125099119</v>
       </c>
       <c r="N6" t="n">
-        <v>653279.8196997807</v>
+        <v>652932.4404454235</v>
       </c>
       <c r="O6" t="n">
-        <v>653279.8196997809</v>
+        <v>652932.4404454234</v>
       </c>
       <c r="P6" t="n">
-        <v>653279.8196997808</v>
+        <v>652932.4404454238</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>333.4040210617719</v>
       </c>
       <c r="E2" t="n">
-        <v>15.83911209009267</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.97147454989326</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8774149194505</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>91.33986237361941</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>136.96988669499</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>216.8329875837096</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>166.0767174715698</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
-        <v>260.8908945313482</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28566,22 +28566,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.27373675443232e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862119</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>537.6437863443703</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>556.5325452335035</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32721,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,34 +33022,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
@@ -35503,16 +35503,16 @@
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0475418999258</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295364</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>425.1908331501702</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295364</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3666152.885939028</v>
+        <v>3667913.416241813</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21.27902055891112</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>21.27902055891089</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>215.2108366981387</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>203.267902013701</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.1612211844838</v>
+        <v>220.1612211844852</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174121</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.5730368512059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.022230457617</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>115.2302178375797</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.433183287319</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1639.433183287319</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2734.312968633809</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1867.11669882964</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C5" t="n">
-        <v>1498.154181889229</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.888483282478</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="E5" t="n">
-        <v>1139.888483282478</v>
+        <v>740.9661488811917</v>
       </c>
       <c r="F5" t="n">
-        <v>728.9025784928708</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>313.8301283378673</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,7 +4600,7 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066532</v>
@@ -4609,10 +4609,10 @@
         <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4716,13 +4716,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4801,52 +4801,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250373</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y8" t="n">
         <v>2434.183678346854</v>
@@ -4880,7 +4880,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4950,16 +4950,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.9487421954783</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,43 +6220,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,19 +6460,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,19 +6715,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.25894333073137</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>31.20374480898943</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
@@ -26352,7 +26352,7 @@
         <v>766789.2697055056</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316941</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316938</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181817</v>
@@ -26432,7 +26432,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,13 +26441,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181809</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748262.9598710861</v>
+        <v>-748262.9598710863</v>
       </c>
       <c r="C6" t="n">
-        <v>580481.7858565066</v>
+        <v>580481.7858565061</v>
       </c>
       <c r="D6" t="n">
-        <v>580481.7858565061</v>
+        <v>580481.7858565062</v>
       </c>
       <c r="E6" t="n">
-        <v>327519.978638069</v>
+        <v>327832.6199669896</v>
       </c>
       <c r="F6" t="n">
-        <v>652932.4404454236</v>
+        <v>653245.0817743448</v>
       </c>
       <c r="G6" t="n">
-        <v>652932.4404454237</v>
+        <v>653245.0817743454</v>
       </c>
       <c r="H6" t="n">
-        <v>652932.4404454237</v>
+        <v>653245.0817743452</v>
       </c>
       <c r="I6" t="n">
-        <v>652932.4404454234</v>
+        <v>653245.081774345</v>
       </c>
       <c r="J6" t="n">
-        <v>435401.2380481461</v>
+        <v>435713.8793770675</v>
       </c>
       <c r="K6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.0817743447</v>
       </c>
       <c r="L6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="M6" t="n">
-        <v>567877.4125099119</v>
+        <v>568190.0538388331</v>
       </c>
       <c r="N6" t="n">
-        <v>652932.4404454235</v>
+        <v>653245.0817743448</v>
       </c>
       <c r="O6" t="n">
-        <v>652932.4404454234</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="P6" t="n">
-        <v>652932.4404454238</v>
+        <v>653245.081774345</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,22 +26968,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>333.4040210617719</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>306.473237911224</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>191.6652090435728</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>91.33986237361941</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.0767174715698</v>
+        <v>166.0767174715684</v>
       </c>
     </row>
     <row r="9">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32721,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
